--- a/word.xlsx
+++ b/word.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megumi/develop/words/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BE2F2E-86F0-8043-A83F-D2FBC2849903}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05103FE3-7585-614E-A816-730866B64E47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{80E81DC7-BEE8-4F4F-BE47-7FFCA854D9D4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" activeTab="1" xr2:uid="{80E81DC7-BEE8-4F4F-BE47-7FFCA854D9D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="185">
   <si>
     <t>stalk</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -749,6 +750,30 @@
   </si>
   <si>
     <t>a有希望的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n文章；n论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thesis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n散文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1115,7 +1140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0EE4708-DA03-2544-BFD1-C63EF9CC17B9}">
   <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="267" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScale="267" workbookViewId="0">
       <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
@@ -1848,4 +1873,44 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41952010-890B-0A47-AA7A-9722229EE5C7}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="334" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/word.xlsx
+++ b/word.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megumi/develop/words/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AF97F8-9FD3-B14D-8823-6E68C6F52C9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC56480-E08B-5948-88D5-5389F8E8ECAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" activeTab="5" xr2:uid="{80E81DC7-BEE8-4F4F-BE47-7FFCA854D9D4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13900" activeTab="10" xr2:uid="{80E81DC7-BEE8-4F4F-BE47-7FFCA854D9D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
-    <sheet name="2" sheetId="2" r:id="rId2"/>
-    <sheet name="3" sheetId="3" r:id="rId3"/>
-    <sheet name="4" sheetId="5" r:id="rId4"/>
-    <sheet name="5" sheetId="6" r:id="rId5"/>
-    <sheet name="6" sheetId="7" r:id="rId6"/>
+    <sheet name="1" sheetId="2" r:id="rId1"/>
+    <sheet name="2" sheetId="3" r:id="rId2"/>
+    <sheet name="3" sheetId="5" r:id="rId3"/>
+    <sheet name="4" sheetId="6" r:id="rId4"/>
+    <sheet name="5" sheetId="7" r:id="rId5"/>
+    <sheet name="6" sheetId="8" r:id="rId6"/>
+    <sheet name="7" sheetId="9" r:id="rId7"/>
+    <sheet name="8" sheetId="10" r:id="rId8"/>
+    <sheet name="9" sheetId="11" r:id="rId9"/>
+    <sheet name="10" sheetId="12" r:id="rId10"/>
+    <sheet name="11" sheetId="13" r:id="rId11"/>
+    <sheet name="28" sheetId="1" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="1513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2622" uniqueCount="2298">
   <si>
     <t>stalk</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6090,6 +6096,3146 @@
   </si>
   <si>
     <t>rag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feminine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a女性的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>masculine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a男性的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jungle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n丛林地带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shrub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n灌木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n沼泽；v淹没</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fringe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n边缘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sideline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n刘海；n边缘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ascribe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v把 归因于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distinguish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v辨别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discriminate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v敬礼；v赞扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applaud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v鼓掌；v赞许</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v称赞；v表扬；v推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n礼品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>criticize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v批评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a批评的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>denounce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v指责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deplore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v责备；n责备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reproach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v谴责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n特性；n性格；n人物；n字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n人格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n特征；n特色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n特点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a匿名的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anonymous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distinctive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a有特色的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v贡献</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v致力于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dedicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ally</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n同盟国；n盟友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v结合；v联合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coalition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n联合；n结合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v捆；v绑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consolidate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v巩固；v加强；v合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v合并；v结合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mingle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disjointed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a不连贯的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v拆开；v分开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confederation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n联邦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>correlate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v相互关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>junction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n交叉点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conjunction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n连接词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accessory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n附件；n配件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affiliate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v使隶属于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subsidiary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a附属的；a次要的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appendix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n附录；n阑尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v增补；v补充；n补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v耽搁；v扣留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v落后；n落后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postpone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v推迟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dilemma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n困境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n树桩；v把 难住</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diligent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a勤奋的；a用功的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a松怠的；n松弛部分；v懈怠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diffuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v扩散；a弥漫的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decentrallize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v分散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v发出；v射出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v发行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v投射；n项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transmit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v发射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radiate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v放射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a具有放射性的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confidence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n信任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confident</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a自信的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>despair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n失望；n绝望；v绝望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radioactive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n边沿；n边界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adolescent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secrecy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n保密能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confidential</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a机密的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intimate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a亲密的；v暗示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concrete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a具体的；n混凝土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a具体的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n详述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dismiss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v解雇；v开除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layoff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n下岗；n临时解雇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n麻袋；v解雇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redundant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a过剩的；a多余的；a被解雇的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discharge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n卸货；v解雇；n解雇；n排出；v排出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v卸货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n国会；n议会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n一届；n集会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orthodox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a传统的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>constrict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v把 限制于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refrain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v克制；v避免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limitation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n限制；n局限性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limited</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a有限的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v约束；v约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v治理；v利用；n马具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saddle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n马鞍；n车座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curfew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n宵禁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imprison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v关押；v监禁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>generosity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n慷慨；n大方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liberal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a自由的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a小的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trifle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n小事；n琐事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trivial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a琐碎的；a无足轻重的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sober</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a清晰的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a精神失常的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cognitive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a认知的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ideology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n意识形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intuition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n直觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perceive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v察觉；v感知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n感知；n直觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>senible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a明智的；a合理的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensitive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a敏感的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advisable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a明智的；a可取的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v欺骗；n骗子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n欺骗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>betray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v背叛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v包含</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consistent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a坚持的；a一贯的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coherent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a连贯的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>embody</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v体现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v涉及</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incorporate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v纳入；v结合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inclusive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a包括在内的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v消除；v排除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exclde</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n例外；n除外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>embrace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v拥抱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v安排；v布置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n处理；n处置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n办理；n处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disposisition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n排列；n安排；n部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atlas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n地图集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n坐标方格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n混乱；n杂乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tangle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n混乱；v使混乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turbulent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a动荡的；a混乱的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v排列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrangement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n安排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v陈列；v展示；n陈列；n展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n布局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v展出；n展品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n展览会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disclose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v揭示；v揭露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v暴露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emerge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n揭露；n暴露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reveal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v揭露；v泄漏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>revelation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n揭示；n揭露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uncover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v揭开；v揭露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unfold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v展开；v打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a公开的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conceal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v隐藏；v隐瞒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>veil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n面纱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unveil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v揭开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n出版物；n发行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publicize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n公布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propagaet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v宣传；v传播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demonstrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v演示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manifest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v显示；v表明；a明显的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exemplify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v举例说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>illustrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n例子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duplicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n复制品；v复制；a复制的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v繁殖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>piracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n盗版行为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pirate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n海盗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imitate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v模仿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simulae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>considerable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a相当大的；a相当多的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>measurable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a相当大的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gigantic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sizeable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giggle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v傻笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v咧嘴笑；n咧嘴笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v嘲笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assassin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n刺客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assassinate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v暗杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>massacre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v屠杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slaughter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n屠杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n乌合之众</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multitue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n大量；n民众</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n括号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bracket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n肢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crwal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scramble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v攀爬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blunder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v踉踉跄跄地走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v蹒跚而行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plunge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v暴跌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stumble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v跌；v绊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tumble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v摔倒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v颤抖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v发抖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v摇摆；n秋千</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shaky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a颤抖的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>episode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n片段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explanatory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a解释的；a说明的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n青少年；a青少年的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boyhood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n孩童期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>juvenile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a青少年的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>youngster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n青年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manhood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n成年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kidnap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v绑架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hijack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v劫持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n大杯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nnegative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a否定的；a消极的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erlook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n省略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emphasis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n强调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emphasize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v强调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>highlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v使突出；v使显著</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>underscore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ignorant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a无知的；a愚昧的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>illiterate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a文盲的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intelligent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a聪明的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intellect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scholarly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a勤奋好学的；a学术性的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n装饰物；v装饰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n介绍；n引言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n序言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appetite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n胃口；n欲望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bodily</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a身体的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a官能的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sexual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a性的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beforehand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad事先；ad预先</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precede</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v先于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a在先的；a在前的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a先的；a前的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cirme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n罪行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>criminal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guilt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n罪过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n罪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>innocent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a清白的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n纯正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allege</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v断言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v宣称；v断言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v声称；v断言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v宣布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overstate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v夸大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>understate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v含蓄地说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a单独的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n鞋底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soitary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a独自的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a双重的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>triple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a三重的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a多样的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cornerstone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n奠基石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foundation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n地基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n样本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specimen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v滴水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v喷洒；n喷雾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sprinkle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v洒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grasp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v抓住</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v抓紧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clutch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dynamic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a有生命的；a有生气的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a有生气的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vigorous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a强有力的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a静止的；n静电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inertia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n保守；n惰性；n懒惰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preferable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a可取的；更好的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simultaneous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a自发的；a无意识的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forcibly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad强有力地；ad有说服力地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spontaneous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a同时发生的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>punctuate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v给 加标点符号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v徘徊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inferior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a下等的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subordinate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a下级的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preliminary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a初步的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secondary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a次要的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advanced</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a先进的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suprior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a卓越的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>junior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a地位高的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a地位低的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>senior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crowning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a使圆满的；a使完美的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>convince</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v使确信；v使信服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>persuasive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a有说服力的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suspect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v怀疑；n嫌疑人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dubious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a半信半疑的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skeptical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a表示怀疑的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>credible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a可信的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doubtless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a无疑地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>undoubtedly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad无疑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v认为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suspend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v悬挂；v暂停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pendulum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n摆；n钟摆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gauge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n量器；n规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n刻度；n规模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dimension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v扔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hurl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v丢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pitch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v扔；n沥青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v使劲关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v投；n飞镖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v猛冲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commerce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n商业；n贸易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>industrial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a工业的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retrail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v零售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wholesale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">a批发的 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n拍卖；v拍卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v购买；n购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affordable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a买得起的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v抱怨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complaint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n抱怨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v呻吟；n呻吟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>murmur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v低语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conquer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v征服；v战胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overcome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v战胜；v克服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prevail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v流行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>champion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n冠军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>triumph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n胜利；v得胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>victorious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a胜利的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v成功；v完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accomplish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corporate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a公司的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>individual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n个人；a个人的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n卷曲物；v弄弯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n弧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n拱门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n卷曲物；v卷曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vertical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a垂直的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upright</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epidemic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a流行性的；n流行病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prevalent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a流行的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v扭曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v拧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>squeeze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrench</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v猛拧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bolt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n螺栓；n雷电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n螺丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v滑翔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v滑行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v滑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slippery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a滑的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n同龄人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v盯着看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n果皮；v削皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v经常乘车往返于两地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fundamental</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a基本的；a基础的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coupon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n优惠券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n代金券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voucher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glossary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n词汇表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vocabulary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n词汇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a有效的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v使生效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a无效的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a徒劳的；n徒劳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hazard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n危险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endanger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v危及；v危害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jeopardize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adventurous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a大胆的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>venture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n冒险；v冒险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arena</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n竞技场；n舞台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>casino</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n赌场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courtesy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n礼貌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gross</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a粗鲁的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a鲁莽的；n大量的某事物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reckless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a鲁莽的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shabby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a破旧的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vulgar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v证实</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>certify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ascertain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courageous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a勇敢的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n懦夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a胆小的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>possess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v占有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>occupy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v占用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a空的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hollow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n洞；a中空的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cavity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n空白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n优点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n美德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtuous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a有道德的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>handicap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n缺陷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>downside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n缺点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drawback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n缺点；n毛病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n戳；v戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>penetrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v穿过；v刺入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>punch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v用拳猛击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pierce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v刺穿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v拍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n鞭子；v鞭打</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v鞭打</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v打；v击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v轻抛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v拍打</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v咬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v刺；v蜇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v连续猛击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>combat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n战斗；v防止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warfare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n战争</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evacuate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v转移；v撤离；v疏散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>withdraw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v收回；v取钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retreat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v撤退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recede</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v退去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n中途退学者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n贷款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a欠着的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refund</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v退款；n退款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v偿还</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disapprove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v否决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v不同意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v反对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oppose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n柜台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>veto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advocate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v拥护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uphold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v支持；v赞成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>approve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v赞成；v同意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clearance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n许可证；n间隙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n同意；v同意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v承认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>granted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad的确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sanction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n认可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neutralize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v使中立化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>standoff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n僵持局面或状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incomprehensive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a范围狭小的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v转播；v转达；n接力赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>owing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6453,749 +9599,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0EE4708-DA03-2544-BFD1-C63EF9CC17B9}">
-  <dimension ref="A1:B90"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="267" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>89</v>
-      </c>
-      <c r="B46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>93</v>
-      </c>
-      <c r="B48" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>97</v>
-      </c>
-      <c r="B50" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>101</v>
-      </c>
-      <c r="B52" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>105</v>
-      </c>
-      <c r="B54" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>107</v>
-      </c>
-      <c r="B55" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>109</v>
-      </c>
-      <c r="B56" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>111</v>
-      </c>
-      <c r="B57" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>113</v>
-      </c>
-      <c r="B58" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>115</v>
-      </c>
-      <c r="B59" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>117</v>
-      </c>
-      <c r="B60" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>119</v>
-      </c>
-      <c r="B61" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>121</v>
-      </c>
-      <c r="B62" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>177</v>
-      </c>
-      <c r="B63" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>124</v>
-      </c>
-      <c r="B64" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>126</v>
-      </c>
-      <c r="B65" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>128</v>
-      </c>
-      <c r="B66" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>130</v>
-      </c>
-      <c r="B67" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>132</v>
-      </c>
-      <c r="B68" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>134</v>
-      </c>
-      <c r="B69" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>136</v>
-      </c>
-      <c r="B70" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>138</v>
-      </c>
-      <c r="B71" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>140</v>
-      </c>
-      <c r="B72" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>142</v>
-      </c>
-      <c r="B73" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>144</v>
-      </c>
-      <c r="B74" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>146</v>
-      </c>
-      <c r="B75" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>148</v>
-      </c>
-      <c r="B76" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>150</v>
-      </c>
-      <c r="B77" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>152</v>
-      </c>
-      <c r="B78" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>154</v>
-      </c>
-      <c r="B79" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>156</v>
-      </c>
-      <c r="B80" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>158</v>
-      </c>
-      <c r="B81" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>160</v>
-      </c>
-      <c r="B82" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>162</v>
-      </c>
-      <c r="B83" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>164</v>
-      </c>
-      <c r="B84" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>166</v>
-      </c>
-      <c r="B85" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>178</v>
-      </c>
-      <c r="B86" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>169</v>
-      </c>
-      <c r="B87" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>171</v>
-      </c>
-      <c r="B88" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>173</v>
-      </c>
-      <c r="B89" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>175</v>
-      </c>
-      <c r="B90" t="s">
-        <v>176</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41952010-890B-0A47-AA7A-9722229EE5C7}">
   <dimension ref="A1:B154"/>
   <sheetViews>
-    <sheetView topLeftCell="A150" zoomScale="313" workbookViewId="0">
+    <sheetView zoomScale="313" workbookViewId="0">
       <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
@@ -8443,11 +10850,2102 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E745E3-7E4E-6D4E-BF0B-3393FC08D736}">
+  <dimension ref="A1:B76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B64" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60BC5F3F-D6F5-E04E-B0BE-90F5EA839C5F}">
+  <dimension ref="A1:B89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="399" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>763</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>2255</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>2297</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>2267</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>2269</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>2283</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>2287</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0EE4708-DA03-2544-BFD1-C63EF9CC17B9}">
+  <dimension ref="A1:B90"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" zoomScale="267" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>177</v>
+      </c>
+      <c r="B63" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>152</v>
+      </c>
+      <c r="B78" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>160</v>
+      </c>
+      <c r="B82" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>178</v>
+      </c>
+      <c r="B86" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>171</v>
+      </c>
+      <c r="B88" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>173</v>
+      </c>
+      <c r="B89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>175</v>
+      </c>
+      <c r="B90" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5924378-B98B-0B4B-877D-45C007BECC45}">
   <dimension ref="A1:B154"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" zoomScale="345" workbookViewId="0">
+    <sheetView zoomScale="345" workbookViewId="0">
       <selection activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
@@ -9694,13 +14192,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95B0880-5A0D-B549-ACE9-F710EF926FE8}">
   <dimension ref="A1:B156"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="392" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
-    </sheetView>
+    <sheetView zoomScale="392" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -10961,12 +15457,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41C1AF0-477B-F840-B9DB-32C24935D533}">
   <dimension ref="A1:B143"/>
   <sheetViews>
-    <sheetView topLeftCell="A138" zoomScale="399" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
+    <sheetView zoomScale="399" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12121,12 +16617,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D0F0A6-0464-7342-80FA-0AFC9A8D5544}">
   <dimension ref="A1:B140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="400" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140"/>
+    <sheetView topLeftCell="E1" zoomScale="400" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13255,4 +17751,2550 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BC916F-7DBA-B84E-B87C-0FF0CE411E70}">
+  <dimension ref="A1:B74"/>
+  <sheetViews>
+    <sheetView topLeftCell="A68" zoomScale="225" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>836</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>834</v>
+      </c>
+      <c r="B7" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>837</v>
+      </c>
+      <c r="B8" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>841</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>843</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>847</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>849</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>851</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>853</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>865</v>
+      </c>
+      <c r="B61" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>863</v>
+      </c>
+      <c r="B62" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>344</v>
+      </c>
+      <c r="B63" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>988</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1686E180-6CD1-734B-8B5F-970A6E93D4B8}">
+  <dimension ref="A1:B78"/>
+  <sheetViews>
+    <sheetView topLeftCell="A73" zoomScale="398" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>878</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>880</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>883</v>
+      </c>
+      <c r="B16" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B18" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>895</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>891</v>
+      </c>
+      <c r="B20" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>893</v>
+      </c>
+      <c r="B21" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>899</v>
+      </c>
+      <c r="B35" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>901</v>
+      </c>
+      <c r="B36" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>932</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>934</v>
+      </c>
+      <c r="B48" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>903</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>905</v>
+      </c>
+      <c r="B52" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>908</v>
+      </c>
+      <c r="B53" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B54" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>909</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>915</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>917</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B70" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>913</v>
+      </c>
+      <c r="B71" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>949</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>953</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>951</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4CC45BA-6EF6-494B-BC5A-BE68D3AF2431}">
+  <dimension ref="A1:B73"/>
+  <sheetViews>
+    <sheetView zoomScale="389" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>954</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>956</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>983</v>
+      </c>
+      <c r="B19" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>972</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>999</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B54" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>923</v>
+      </c>
+      <c r="B55" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>976</v>
+      </c>
+      <c r="B57" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>978</v>
+      </c>
+      <c r="B58" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>980</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A2C6CC-273D-8D42-981C-8CCB943C8E08}">
+  <dimension ref="A1:B84"/>
+  <sheetViews>
+    <sheetView zoomScale="400" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>571</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/word.xlsx
+++ b/word.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megumi/develop/words/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC56480-E08B-5948-88D5-5389F8E8ECAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72551DD0-7617-AC4D-9811-0CF7184B60C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13900" activeTab="10" xr2:uid="{80E81DC7-BEE8-4F4F-BE47-7FFCA854D9D4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" firstSheet="1" activeTab="15" xr2:uid="{80E81DC7-BEE8-4F4F-BE47-7FFCA854D9D4}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,12 @@
     <sheet name="9" sheetId="11" r:id="rId9"/>
     <sheet name="10" sheetId="12" r:id="rId10"/>
     <sheet name="11" sheetId="13" r:id="rId11"/>
-    <sheet name="28" sheetId="1" r:id="rId12"/>
+    <sheet name="12" sheetId="14" r:id="rId12"/>
+    <sheet name="15" sheetId="15" r:id="rId13"/>
+    <sheet name="16" sheetId="16" r:id="rId14"/>
+    <sheet name="17" sheetId="17" r:id="rId15"/>
+    <sheet name="18" sheetId="18" r:id="rId16"/>
+    <sheet name="28" sheetId="1" r:id="rId17"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2622" uniqueCount="2298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="3020">
   <si>
     <t>stalk</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9215,10 +9220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>n僵持局面或状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>incomprehensive</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -9236,6 +9237,2898 @@
   </si>
   <si>
     <t>owing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n僵局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v描绘；v描写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v描绘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v谴责；v指责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prosecute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v起诉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lawsuit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n诉讼；n起诉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verdict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n裁决；n裁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>convict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v证明 有罪；n罪犯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condemn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v谴责；v批评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compliment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n赞美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flatter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v奉承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n津贴；n补贴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n失业救济金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>welfare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n福利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n养老金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pensioner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n领养老金或抚恤金的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subsidy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n津贴；n补助金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wellbeing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n舒适；n健康；n幸福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amaze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v使惊奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v使惊吓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v使震惊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abstract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v提取；a抽象的；n摘要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n简历；v继续进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excerpt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n摘录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>senario</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>script</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n剧本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v逗笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entertain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v使欢乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pastime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n消遣；n娱乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v挑逗；v戏弄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aspect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n方面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>facet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n页边空白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unilateral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a单方面的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multilateral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a多方面的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a相互的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reciprocal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a相互的；a互惠的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v离开；v启程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>farewell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n告别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apartment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n房间；n套间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n套间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compartment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n隔间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n地下室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n穹顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mansion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n公馆；n宅第</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n贫民窟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n仓库；n货栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reunite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v重聚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reunification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n重新统一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v使联合；v统一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solidarity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n团结；n一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vaccine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n疫苗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vaccinate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v给 接种疫苗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>immune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a有免疫力的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exempt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a被免除义务的；a被赦免的；v赦免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v使摆脱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v流泪；n棚屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apparent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a明显的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obvious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bald</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a秃头的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conspicious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a显眼的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightweight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a重量轻的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a深刻的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distinct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a截然不同的；a清楚的；a明显的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a多种多样的；a不同的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>differentiate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v区分；v区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appraisal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n评价；n估计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v估价；v估计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evaluate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v评估；v评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>estimate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v估计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>underestimate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v低估</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appreciate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v赏识；v领会；v理解；v感激</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>access</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n接近；n入口；n通道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admittance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n进入权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>approach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v接近；n接近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n披肩；n岬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>horn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n号；n喇叭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thorn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n花苞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bloom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v开花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blossom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flourish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v繁荣；v兴旺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prosper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prosperity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n繁荣；n兴旺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thrive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v兴旺；v繁荣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v兴旺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recession</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n衰退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v跌落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spiral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n螺旋线；a螺旋的；v螺旋上升/下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n家族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tribe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n部落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buzz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v嗡嗡声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>howl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v嚎叫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v吼叫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v哼曲子；v发嗡嗡声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n赞美诗；n圣歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chorus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n合唱队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n独奏；a单独的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>briefcase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n公文包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portfolio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n体积；n容积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chunk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n大部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>massive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a大量的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>miniature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a微小的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n堆；v堆积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cabinet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n柜橱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>closet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wardrobe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n衣柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n绳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n和弦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n缆绳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n一卷；v盘绕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n卷筒；v迷惑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>circuit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n环形道路；n电路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a线的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rein</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n缰绳；v勒住</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n蕾丝；n鞋带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>budget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n预算；a低廉的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v使能够</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v使残疾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paralyze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v使瘫痪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a有能力的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>competent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efficient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a效率高的；a有能力的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>versatile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a多才多艺的；a多方面的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n能力；n才能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>competence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faculty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n才能；n技能；n全体教学人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expertise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n专长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speciality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n专长；n专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v逮捕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v捕获；n捕获</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emancipate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v解放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catalog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>directory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n人名地址簿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inventory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n时间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>species</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n类；n种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classified</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a分类的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homogeneous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a同种类的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>certificate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n证书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>license</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diploma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n毕业文凭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n专利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n排；v排列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n柱状物；n圆柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v表明；n索引；n指数；n指标；n索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a开头的；a最初的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initiate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v开始；v发动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v开始；v着手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n开始；n发作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n开端；n开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>threshold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n门槛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v终止；n终止；v停止；n停止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>halt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v阻止；v停止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>withhold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v拒接给予；v扣留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>terminate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v终止；v结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v使搁浅；v使滞留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ongoing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a进行中的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>underway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proceed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v进行；v行进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v追赶；v追逐；n追赶；n追逐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pursue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v追踪；v追赶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pursuit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n追踪；n追赶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v追踪；v跟踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v打破；v弄破；n碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scrap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n碎片；n废料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n片；n薄片；v切片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n劈；n砍；v劈；v砍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v劈；v砍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v折断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>split</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v裂开；n裂口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v引用；n引文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v冲突；n冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v碰撞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n碰撞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v碰撞；n碰撞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v推翻；v翻转；v倒车；a相反的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contrary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a相反的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concede</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v承认；v认输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concession</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n让步；n妥协</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compromise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v妥协</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controversy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n争论；n辩论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n争论；n争端；n主张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>committee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>council</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v竞争；v斗争；v主张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n比赛；v竞争；n竞争</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rival</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n对手；v竞争</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opponent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n对手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>versus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prep对抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n噎住；v噎住</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n插头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teamwork</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n合作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collaboration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooperate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v合作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acknowledge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v确认；v对 表示感谢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recognition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n认可；n承认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v坦白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v否认；v否定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n面具；v伪装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disguise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v伪装；n伪装；v假装；n假装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pretend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v假装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n顾客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n赞助人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sponsor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n主办方；n发起人；v发起；v主办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supportive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a支持的；a赞助的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n关心；n挂念；v关心；v挂念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>considerate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a体贴的；a体谅的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cordinal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a诚恳的；a情切的；a热切的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a乐于助人的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enthusiastic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a热情的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a热衷的；a敏锐的；a敏捷的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irrespective</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad不顾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indifferent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a冷淡的；a不关心的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carefree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a无忧无虑的；a无牵无挂的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clarify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v澄清；v阐明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clear-cut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v混淆；v弄错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baffle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v使困惑；v难住</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bewilder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v使迷惑；v使糊涂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dizzy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a头晕目眩的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dazzle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v使炫目；n使炫目的光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conservative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a保守的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a激进的；n激进分子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>militant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concerning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prep关于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regarding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n魅力；v迷人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glamor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>construct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v建造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fabricate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v制造；v捏造；v伪造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>destructive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a破坏性的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sabotage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v阴谋破坏；n阴谋破坏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wreck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v破坏；n残骸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crucial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a至关重要的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decisive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a决定性的；a果断的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>definitive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a最可靠的；a最权威的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardinal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foremost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a最重要的；a最前的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supreme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a至高的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>staple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n主食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n订书钉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consequent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a作为结果的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n后果；n结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resultant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a作为 的后果而发生的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cruise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v巡航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patrol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v巡逻；v巡查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cube</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n立方体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cylinder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n圆柱体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>square</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a正方形的；n正方形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a椭圆形的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rectangular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a矩形的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>triangle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n三角形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analyze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v演绎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diagnose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v诊断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v推论；v推断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v推测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>denote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v表示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v指示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deadly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a致命的；ad非常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fatal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a致命的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mortal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a极其重要的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n暗示；v暗示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v暗示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v腐烂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corrode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v腐蚀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medieval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a中世纪的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primitive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a原始的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contemporary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a当代的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a当前的；a现在的；n潮流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v使过时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v冒犯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n犯规</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n攻击；v攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n辩护；n防护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deprive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v夺去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v剥夺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v强奸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v抢夺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n托盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n功绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n刀刃；n刀口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n誓言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impromptu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a即兴的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n好的一面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a重要的；a首要的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a重要的；a基本的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>immerse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v使浸没</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>submerge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v沉没</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overwhelm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v淹没</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dwarf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n矮子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n巨人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chapel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cathedral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n大教堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>submit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v提交；v屈服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v提议；v求婚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n提议；n主张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surrender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v交出；v投降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obedience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n服从；v顺从</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v屈服；v服从；v出产；n产量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v强迫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enforce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oblige</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v迫使</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>constrain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reluctant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a不情愿的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voluntary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a自愿的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volunteer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v志愿；n志愿者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forerunner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n先驱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predecessor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n前辈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ignite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v激起；v引燃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inspire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v鼓舞；v激励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motivate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v作为 的动机；v激发 的兴趣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thrill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v使兴奋；v使激动；n令人激动的事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stimulate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v刺激</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incentive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n刺激</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v激励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stimulus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n刺激物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accelerate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v加速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v提高；v增加；n提高；n增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faciliate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v使便利；v有助于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v有助于；v有用于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impulse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n冲动；n推动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v促进；v增进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prompt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v促进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>urge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v催促</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n推动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n登记表；v登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enroll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v招生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recruit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v招募</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>installment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n分期付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mortgage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n抵押</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deposit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v存放；n存款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n门外汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>veteran</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n老兵；n老手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trainee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n学员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v交换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companionship</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n友谊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fellowship</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n伙伴关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>envious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a嫉妒的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jealous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proof</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n证据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>witness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v目击；n目击者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v自夸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exaggerate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comprehension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n理解力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intelligible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a可理解的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explicit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>implicit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a含蓄的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ambiguous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a模棱两可的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obscure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a模糊的；v搞混</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vague</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a含糊的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colleague</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n同事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>co-worker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coverage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n覆盖范围；n新闻报道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sphere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n球体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectrum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n跨度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>traverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v横越；v穿过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prototype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n原型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stereotype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n老套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>momentum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n动量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rehearse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v排练；v排演</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n漂流；v漂流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impetus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n光谱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n小教堂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11478,8 +14371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60BC5F3F-D6F5-E04E-B0BE-90F5EA839C5F}">
   <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="399" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView topLeftCell="A71" zoomScale="399" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12030,7 +14923,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="B69" t="s">
         <v>2259</v>
@@ -12177,23 +15070,23 @@
         <v>2291</v>
       </c>
       <c r="B87" t="s">
-        <v>2292</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B88" t="s">
         <v>2293</v>
-      </c>
-      <c r="B88" t="s">
-        <v>2294</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B89" t="s">
         <v>2295</v>
-      </c>
-      <c r="B89" t="s">
-        <v>2296</v>
       </c>
     </row>
   </sheetData>
@@ -12203,6 +15096,3174 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153329A0-E52F-BC4F-8670-285747FFBD0A}">
+  <dimension ref="A1:B80"/>
+  <sheetViews>
+    <sheetView topLeftCell="A66" zoomScale="335" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2306</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2307</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>2309</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>2311</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>2313</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>2315</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>2317</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>2329</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>2343</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>2345</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>2347</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>2361</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>832</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>2364</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>2366</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>2380</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>2384</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>2386</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>2398</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>2400</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>2404</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>2409</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>2426</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>2430</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>2434</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>2436</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>2438</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>2440</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>2442</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>2444</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>2446</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>2450</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A492AEA4-CDBA-CB4C-B312-88D6F6820D94}">
+  <dimension ref="A1:B76"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" zoomScale="318" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>2452</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2456</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2457</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2459</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>2462</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>2464</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>2466</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>2472</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>2480</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>2486</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>2490</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>2494</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>2496</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>2498</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>2500</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>2502</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>2504</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>2506</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>2509</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>2511</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>2513</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>2515</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>2523</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>2525</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>2527</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>2530</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>2531</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>2533</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>2535</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>2537</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>2539</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>2543</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>2544</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>2546</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>2548</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>2555</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>2557</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>2559</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>2561</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>997</v>
+      </c>
+      <c r="B61" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>2563</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>2565</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>2570</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>2574</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>2580</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>2581</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A36B97-3E91-9F49-B935-09EA62D89E10}">
+  <dimension ref="A1:B71"/>
+  <sheetViews>
+    <sheetView topLeftCell="A59" zoomScale="398" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2595</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2597</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2599</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2601</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>2603</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>2605</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>2607</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>2609</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>2611</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>2613</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>2616</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>2618</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>2620</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>2624</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>2626</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>2629</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>2631</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>2637</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>2639</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>2641</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>2645</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>2647</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>2657</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>2661</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>2663</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>2665</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>2667</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>2670</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>2678</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>2680</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>2682</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>2686</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>2687</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>2689</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>2691</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>2696</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>2698</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>2700</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>2702</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>2704</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>2706</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>2708</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>2710</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>2712</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>2714</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>2716</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>2718</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>2720</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>2722</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>2726</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05316CD-988E-904E-A0FD-D210AD71EE85}">
+  <dimension ref="A1:B79"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" zoomScale="356" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>2728</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2730</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2731</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2735</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2737</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>2739</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>2745</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>2746</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>2748</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>341</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>2750</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>2751</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>2757</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>2759</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>2761</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>2763</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>2767</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>2768</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>2769</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>2771</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>2776</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>2782</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>2784</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>2786</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>2788</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>2790</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>2792</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>2794</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>2796</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>2798</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>2800</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>2802</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>2804</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>2806</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>2810</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>2812</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>2813</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>2815</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>2819</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>2820</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>2824</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>2826</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>2827</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>2829</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>2830</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>2832</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>2834</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>2836</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>2838</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>2840</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>2842</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>2844</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>2846</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>2848</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>2850</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>791</v>
+      </c>
+      <c r="B71" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>2852</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>2854</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>2856</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>2858</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>2860</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>2862</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>2864</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF65114-48C7-624D-ABFC-7D691CE6D10D}">
+  <dimension ref="A1:B79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="399" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>2870</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2872</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2874</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2878</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2880</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>2883</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>2885</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>2889</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>2891</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>2893</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>2895</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>2897</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>2898</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>2900</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>2901</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>2903</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>2907</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>2909</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>2911</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>2913</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>2915</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>2919</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>2921</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>2923</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>2925</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>2927</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>2929</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>2935</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>2937</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>2939</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>2941</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>3017</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>2944</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>2946</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>2948</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>2950</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>2954</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>2956</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>2958</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>2960</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>2962</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>2965</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>2967</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>2969</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>2971</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>2972</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>2974</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>2976</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>2978</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>2979</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>2981</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B61" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>2984</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>2986</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>2988</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>2992</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>2994</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>2995</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>2997</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>2999</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>3001</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>3002</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>3003</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>3005</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>3007</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>3009</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>3011</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>3013</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>3015</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0EE4708-DA03-2544-BFD1-C63EF9CC17B9}">
   <dimension ref="A1:B90"/>
   <sheetViews>

--- a/word.xlsx
+++ b/word.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megumi/develop/words/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3DC538-8953-9447-9E2E-2E76FB7F5554}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119AC6C7-E141-4646-B1EC-C2E35977A3AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13920" xr2:uid="{80E81DC7-BEE8-4F4F-BE47-7FFCA854D9D4}"/>
+    <workbookView xWindow="6100" yWindow="4120" windowWidth="27320" windowHeight="13920" firstSheet="13" activeTab="27" xr2:uid="{80E81DC7-BEE8-4F4F-BE47-7FFCA854D9D4}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -40,8 +40,8 @@
     <sheet name="27" sheetId="25" r:id="rId25"/>
     <sheet name="28" sheetId="1" r:id="rId26"/>
     <sheet name="29" sheetId="21" r:id="rId27"/>
-    <sheet name="Sheet1" sheetId="26" r:id="rId28"/>
-    <sheet name="Sheet2" sheetId="30" r:id="rId29"/>
+    <sheet name="30" sheetId="30" r:id="rId28"/>
+    <sheet name="Sheet1" sheetId="26" r:id="rId29"/>
     <sheet name="Sheet3" sheetId="31" r:id="rId30"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4812" uniqueCount="4302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4951" uniqueCount="4396">
   <si>
     <t>stalk</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -17270,6 +17270,382 @@
   </si>
   <si>
     <t>v下降；v衰退；v谢绝；v婉言拒绝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tragedy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drama</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n悲剧；n灾难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dramatic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a戏剧的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n剧本；n笔迹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n漂；v飘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v浮动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n矮子；v使变得矮小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n巨人；n巨物；a巨大的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>educate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v教育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instruct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v教；v教授</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v启发；v教导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v激励；v作为 的动机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v指示；n指标；n索引；n指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>misunderstand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v误解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>influence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v相互影响；v相互作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n影响力；v影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n民意测验；v对 进行民意测验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v投票；n选票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v选举</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v选择；a选择的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elegant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n优雅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n剧本； n戏剧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v小口地喝；n一小口的量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>challenge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v向 挑战；n挑战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v敢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confront</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v使面临；v使遭遇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v遭遇；n遭遇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avoid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v避免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v逃跑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n末尾；v终止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n结尾；n结局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v忍耐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v抵抗；v禁受住</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>execute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v实施；v处决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v实施；v强迫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v把 强加于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v产生电火花；n火花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discourage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v使泄气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frustrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v使灰心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n注册；v注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v登记；v注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corporation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a嫉妒的；a羡慕的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a羡慕的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anticipate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v预计；v期望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v预言；v预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forecast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v预报；n预报；v预测；n预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foresee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v预见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v推测；v推断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n推论；n推理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evidence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n根据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n目击者；v目击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lodge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v投宿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a正点的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ß</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -17636,8 +18012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41952010-890B-0A47-AA7A-9722229EE5C7}">
   <dimension ref="A1:B154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="313" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView topLeftCell="A107" zoomScale="313" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -20243,8 +20619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153329A0-E52F-BC4F-8670-285747FFBD0A}">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView zoomScale="335" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A23" zoomScale="335" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -23454,8 +23830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF65114-48C7-624D-ABFC-7D691CE6D10D}">
   <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="399" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A21" zoomScale="399" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -31257,6 +31633,577 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B971DA65-04BA-7145-8231-E07F9985B883}">
+  <dimension ref="A1:H69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="214" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>4302</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>4303</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4305</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2989</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>4309</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>2850</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>2852</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>4313</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>4315</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>551</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>2889</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>556</v>
+      </c>
+      <c r="B13" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>2563</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>562</v>
+      </c>
+      <c r="B15" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>4320</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>4322</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>4324</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>4326</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>3114</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>4329</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>4331</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>4333</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>4335</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>4337</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>4338</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>592</v>
+      </c>
+      <c r="B27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>590</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4341</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>588</v>
+      </c>
+      <c r="B29" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>4342</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>4344</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4345</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>4346</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4348</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>4349</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>4351</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>4353</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>4355</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>3064</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4357</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>521</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>4359</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>2871</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>2869</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>2872</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>255</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>4363</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>4365</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>4367</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>2918</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4369</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>2920</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>4371</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4372</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>4198</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4199</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>2943</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>2945</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>4375</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>4377</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4378</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>4379</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>4381</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4383</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>4384</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4385</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>2946</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>4386</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>2948</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4388</v>
+      </c>
+      <c r="H65" t="s">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>4389</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>4391</v>
+      </c>
+      <c r="B67" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>3729</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>4393</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4394</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E11F5D8-FC6F-C84B-B093-7323420AB24E}">
   <dimension ref="A1:B71"/>
   <sheetViews>
@@ -31838,19 +32785,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B971DA65-04BA-7145-8231-E07F9985B883}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
